--- a/2020-07-15/web_tables/forecast_investment.xlsx
+++ b/2020-07-15/web_tables/forecast_investment.xlsx
@@ -387,77 +387,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I квартал 2020</t>
+          <t>II квартал 2020</t>
         </is>
       </c>
       <c r="B2">
-        <v>102.426</v>
+        <v>101.434</v>
       </c>
       <c r="C2">
-        <v>103.596</v>
+        <v>100.956</v>
       </c>
       <c r="D2">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="E2">
-        <v>101.44</v>
+        <v>100.467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>II квартал 2020</t>
+          <t>III квартал 2020</t>
         </is>
       </c>
       <c r="B3">
-        <v>102.537</v>
+        <v>101.64</v>
       </c>
       <c r="C3">
-        <v>103.016</v>
+        <v>101.53</v>
       </c>
       <c r="D3">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="E3">
-        <v>100.584</v>
+        <v>99.925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>III квартал 2020</t>
+          <t>IV квартал 2020</t>
         </is>
       </c>
       <c r="B4">
-        <v>102.634</v>
+        <v>101.821</v>
       </c>
       <c r="C4">
-        <v>102.924</v>
+        <v>102.182</v>
       </c>
       <c r="D4">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="E4">
-        <v>99.899</v>
+        <v>99.492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IV квартал 2020</t>
+          <t>I квартал 2021</t>
         </is>
       </c>
       <c r="B5">
-        <v>102.72</v>
+        <v>101.98</v>
       </c>
       <c r="C5">
-        <v>103.124</v>
+        <v>101.117</v>
       </c>
       <c r="D5">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="E5">
-        <v>99.34999999999999</v>
+        <v>99.145</v>
       </c>
     </row>
   </sheetData>
